--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\vedompst_CTK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9098E9F-C40C-4C9C-BDA0-55D7EDF44C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A806E3-E48E-44B0-97EC-D7ACE42AF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7125" yWindow="1245" windowWidth="20085" windowHeight="13605" xr2:uid="{0BEF1562-72D5-4D0D-8C7D-FCF0B0E70284}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BEF1562-72D5-4D0D-8C7D-FCF0B0E70284}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -459,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,116 +555,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -675,6 +565,113 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,8 +992,8 @@
   </sheetPr>
   <dimension ref="A1:AR47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK40" sqref="AK40:AM40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1025,85 +1022,85 @@
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="49"/>
-      <c r="R1" s="49"/>
-      <c r="S1" s="49"/>
-      <c r="T1" s="49"/>
-      <c r="U1" s="49"/>
-      <c r="V1" s="49"/>
-      <c r="W1" s="49"/>
-      <c r="X1" s="49"/>
-      <c r="Y1" s="49"/>
-      <c r="Z1" s="49"/>
-      <c r="AA1" s="49"/>
-      <c r="AB1" s="49"/>
-      <c r="AC1" s="49"/>
-      <c r="AD1" s="49"/>
-      <c r="AE1" s="49"/>
-      <c r="AF1" s="49"/>
-      <c r="AG1" s="49"/>
-      <c r="AH1" s="49"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
       <c r="AI1" s="17"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
-      <c r="W2" s="49"/>
-      <c r="X2" s="49"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
       <c r="AI2" s="17" t="s">
         <v>40</v>
       </c>
       <c r="AJ2" s="17"/>
-      <c r="AL2" s="41"/>
-      <c r="AM2" s="42"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="76"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
@@ -1120,18 +1117,18 @@
       <c r="M3" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="43" t="s">
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="W3" s="43"/>
+      <c r="W3" s="82"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
@@ -1146,178 +1143,178 @@
       <c r="AI3" s="17"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="42"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="76"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47"/>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="42"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="76"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="54"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="54"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="54"/>
-      <c r="AB5" s="54"/>
-      <c r="AC5" s="54"/>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AF5" s="54"/>
-      <c r="AG5" s="54"/>
-      <c r="AH5" s="54"/>
-      <c r="AI5" s="54"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
       <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="42"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="76"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
-      <c r="P6" s="63"/>
-      <c r="Q6" s="63"/>
-      <c r="R6" s="63"/>
-      <c r="S6" s="63"/>
-      <c r="T6" s="63"/>
-      <c r="U6" s="63"/>
-      <c r="V6" s="63"/>
-      <c r="W6" s="63"/>
-      <c r="X6" s="63"/>
-      <c r="Y6" s="63"/>
-      <c r="Z6" s="63"/>
-      <c r="AA6" s="63"/>
-      <c r="AB6" s="63"/>
-      <c r="AC6" s="63"/>
-      <c r="AD6" s="63"/>
-      <c r="AE6" s="63"/>
-      <c r="AF6" s="63"/>
-      <c r="AG6" s="63"/>
-      <c r="AH6" s="63"/>
-      <c r="AI6" s="63"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="42"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="76"/>
     </row>
     <row r="7" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="51"/>
-      <c r="Y7" s="51"/>
-      <c r="Z7" s="51"/>
-      <c r="AA7" s="51"/>
-      <c r="AB7" s="51"/>
-      <c r="AC7" s="51"/>
-      <c r="AD7" s="51"/>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="51"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="53"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="66"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -1360,53 +1357,53 @@
       <c r="AM8" s="17"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="74"/>
-      <c r="C9" s="55" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="58"/>
-      <c r="O9" s="58"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="58"/>
-      <c r="R9" s="58"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="58"/>
-      <c r="AI9" s="58"/>
-      <c r="AJ9" s="66" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="AK9" s="67"/>
+      <c r="AK9" s="57"/>
       <c r="AL9" s="15" t="s">
         <v>29</v>
       </c>
@@ -1415,45 +1412,45 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+      <c r="A10" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="59"/>
-      <c r="U10" s="59"/>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
-      <c r="Z10" s="59"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="59"/>
-      <c r="AC10" s="59"/>
-      <c r="AD10" s="59"/>
-      <c r="AE10" s="59"/>
-      <c r="AF10" s="59"/>
-      <c r="AG10" s="59"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="69"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="59"/>
       <c r="AL10" s="16" t="s">
         <v>26</v>
       </c>
@@ -1462,104 +1459,104 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="44">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="47">
         <v>1</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="47">
         <v>2</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="47">
         <v>3</v>
       </c>
-      <c r="H11" s="44">
+      <c r="H11" s="47">
         <v>4</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="47">
         <v>5</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="47">
         <v>6</v>
       </c>
-      <c r="K11" s="44">
+      <c r="K11" s="47">
         <v>7</v>
       </c>
-      <c r="L11" s="44">
+      <c r="L11" s="47">
         <v>8</v>
       </c>
-      <c r="M11" s="44">
+      <c r="M11" s="47">
         <v>9</v>
       </c>
-      <c r="N11" s="44">
+      <c r="N11" s="47">
         <v>10</v>
       </c>
-      <c r="O11" s="44">
+      <c r="O11" s="47">
         <v>11</v>
       </c>
-      <c r="P11" s="44">
+      <c r="P11" s="47">
         <v>12</v>
       </c>
-      <c r="Q11" s="44">
+      <c r="Q11" s="47">
         <v>13</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="47">
         <v>14</v>
       </c>
-      <c r="S11" s="44">
+      <c r="S11" s="47">
         <v>15</v>
       </c>
-      <c r="T11" s="44">
+      <c r="T11" s="47">
         <v>16</v>
       </c>
-      <c r="U11" s="44">
+      <c r="U11" s="47">
         <v>17</v>
       </c>
-      <c r="V11" s="44">
+      <c r="V11" s="47">
         <v>18</v>
       </c>
-      <c r="W11" s="44">
+      <c r="W11" s="47">
         <v>19</v>
       </c>
-      <c r="X11" s="44">
+      <c r="X11" s="47">
         <v>20</v>
       </c>
-      <c r="Y11" s="44">
+      <c r="Y11" s="47">
         <v>21</v>
       </c>
-      <c r="Z11" s="44">
+      <c r="Z11" s="47">
         <v>22</v>
       </c>
-      <c r="AA11" s="44">
+      <c r="AA11" s="47">
         <v>23</v>
       </c>
-      <c r="AB11" s="44">
+      <c r="AB11" s="47">
         <v>24</v>
       </c>
-      <c r="AC11" s="44">
+      <c r="AC11" s="47">
         <v>25</v>
       </c>
-      <c r="AD11" s="44">
+      <c r="AD11" s="47">
         <v>26</v>
       </c>
-      <c r="AE11" s="44">
+      <c r="AE11" s="47">
         <v>27</v>
       </c>
-      <c r="AF11" s="44">
+      <c r="AF11" s="47">
         <v>28</v>
       </c>
-      <c r="AG11" s="44">
+      <c r="AG11" s="47">
         <v>29</v>
       </c>
-      <c r="AH11" s="44">
+      <c r="AH11" s="47">
         <v>30</v>
       </c>
-      <c r="AI11" s="44">
+      <c r="AI11" s="47">
         <v>31</v>
       </c>
-      <c r="AJ11" s="60" t="s">
+      <c r="AJ11" s="72" t="s">
         <v>24</v>
       </c>
       <c r="AK11" s="23" t="s">
@@ -1573,42 +1570,42 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="45"/>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
-      <c r="T12" s="45"/>
-      <c r="U12" s="45"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="45"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="45"/>
-      <c r="AA12" s="45"/>
-      <c r="AB12" s="45"/>
-      <c r="AC12" s="45"/>
-      <c r="AD12" s="45"/>
-      <c r="AE12" s="45"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="45"/>
-      <c r="AH12" s="45"/>
-      <c r="AI12" s="45"/>
-      <c r="AJ12" s="61"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="73"/>
       <c r="AK12" s="23" t="s">
         <v>20</v>
       </c>
@@ -1620,42 +1617,42 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="45"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
-      <c r="T13" s="45"/>
-      <c r="U13" s="45"/>
-      <c r="V13" s="45"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="45"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="45"/>
-      <c r="AA13" s="45"/>
-      <c r="AB13" s="45"/>
-      <c r="AC13" s="45"/>
-      <c r="AD13" s="45"/>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="45"/>
-      <c r="AI13" s="45"/>
-      <c r="AJ13" s="61"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="73"/>
       <c r="AK13" s="26" t="s">
         <v>17</v>
       </c>
@@ -1667,42 +1664,42 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="46"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="46"/>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AF14" s="46"/>
-      <c r="AG14" s="46"/>
-      <c r="AH14" s="46"/>
-      <c r="AI14" s="46"/>
-      <c r="AJ14" s="62"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="74"/>
       <c r="AK14" s="23" t="s">
         <v>14</v>
       </c>
@@ -1712,10 +1709,10 @@
       <c r="AM14" s="23"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="81">
+      <c r="A15" s="43">
         <v>1</v>
       </c>
-      <c r="B15" s="82"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="22">
         <v>2</v>
       </c>
@@ -2866,101 +2863,101 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="83"/>
-      <c r="G40" s="83"/>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="64"/>
-      <c r="L40" s="64"/>
-      <c r="M40" s="64"/>
-      <c r="N40" s="64"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="45"/>
+      <c r="K40" s="46"/>
+      <c r="L40" s="46"/>
+      <c r="M40" s="46"/>
+      <c r="N40" s="46"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="64" t="s">
+      <c r="P40" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="64"/>
-      <c r="T40" s="64"/>
-      <c r="U40" s="64"/>
-      <c r="V40" s="64"/>
+      <c r="Q40" s="46"/>
+      <c r="R40" s="46"/>
+      <c r="S40" s="46"/>
+      <c r="T40" s="46"/>
+      <c r="U40" s="46"/>
+      <c r="V40" s="46"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="72" t="s">
+      <c r="X40" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="64" t="s">
+      <c r="Y40" s="62"/>
+      <c r="Z40" s="62"/>
+      <c r="AA40" s="62"/>
+      <c r="AB40" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AC40" s="64"/>
-      <c r="AD40" s="64"/>
-      <c r="AE40" s="64"/>
-      <c r="AF40" s="64"/>
-      <c r="AG40" s="64"/>
-      <c r="AH40" s="64"/>
-      <c r="AI40" s="64"/>
-      <c r="AJ40" s="64"/>
-      <c r="AK40" s="64" t="s">
+      <c r="AC40" s="46"/>
+      <c r="AD40" s="46"/>
+      <c r="AE40" s="46"/>
+      <c r="AF40" s="46"/>
+      <c r="AG40" s="46"/>
+      <c r="AH40" s="46"/>
+      <c r="AI40" s="46"/>
+      <c r="AJ40" s="46"/>
+      <c r="AK40" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="AL40" s="64"/>
-      <c r="AM40" s="64"/>
+      <c r="AL40" s="46"/>
+      <c r="AM40" s="46"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="70" t="s">
+      <c r="E41" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="70"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="70"/>
-      <c r="I41" s="70"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70" t="s">
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="70"/>
-      <c r="Q41" s="70"/>
-      <c r="R41" s="70"/>
-      <c r="S41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="U41" s="70"/>
-      <c r="V41" s="70"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="72"/>
-      <c r="Y41" s="72"/>
-      <c r="Z41" s="72"/>
-      <c r="AA41" s="72"/>
-      <c r="AB41" s="70" t="s">
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AC41" s="70"/>
-      <c r="AD41" s="70"/>
-      <c r="AE41" s="70"/>
-      <c r="AF41" s="70"/>
-      <c r="AG41" s="70"/>
-      <c r="AH41" s="70" t="s">
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="60"/>
+      <c r="AF41" s="60"/>
+      <c r="AG41" s="60"/>
+      <c r="AH41" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AI41" s="70"/>
-      <c r="AJ41" s="70"/>
-      <c r="AK41" s="70" t="s">
+      <c r="AI41" s="60"/>
+      <c r="AJ41" s="60"/>
+      <c r="AK41" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AL41" s="70"/>
-      <c r="AM41" s="70"/>
+      <c r="AL41" s="60"/>
+      <c r="AM41" s="60"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
@@ -3008,22 +3005,22 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="64"/>
-      <c r="G43" s="64"/>
-      <c r="H43" s="64"/>
-      <c r="I43" s="64"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="46"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="64"/>
-      <c r="M43" s="64"/>
-      <c r="N43" s="64"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="64"/>
+      <c r="L43" s="46"/>
+      <c r="M43" s="46"/>
+      <c r="N43" s="46"/>
+      <c r="O43" s="46"/>
+      <c r="P43" s="46"/>
+      <c r="Q43" s="46"/>
+      <c r="R43" s="46"/>
+      <c r="S43" s="46"/>
+      <c r="T43" s="46"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
@@ -3034,11 +3031,11 @@
       <c r="Z43" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AA43" s="65"/>
-      <c r="AB43" s="65"/>
-      <c r="AC43" s="65"/>
-      <c r="AD43" s="65"/>
-      <c r="AE43" s="65"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="63"/>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
       <c r="AF43" s="5"/>
       <c r="AG43" s="30" t="s">
         <v>3</v>
@@ -3056,26 +3053,26 @@
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="70" t="s">
+      <c r="E44" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="70"/>
-      <c r="G44" s="70"/>
-      <c r="H44" s="70"/>
-      <c r="I44" s="70"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="70" t="s">
+      <c r="L44" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="70"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="70"/>
-      <c r="R44" s="70"/>
-      <c r="S44" s="70"/>
-      <c r="T44" s="70"/>
+      <c r="M44" s="60"/>
+      <c r="N44" s="60"/>
+      <c r="O44" s="60"/>
+      <c r="P44" s="60"/>
+      <c r="Q44" s="60"/>
+      <c r="R44" s="60"/>
+      <c r="S44" s="60"/>
+      <c r="T44" s="60"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
@@ -3098,8 +3095,8 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
@@ -3144,23 +3141,50 @@
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="P40:V40"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="S11:S14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AF11:AF14"/>
+    <mergeCell ref="AG11:AG14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X14"/>
+    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="C4:AI4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="D1:AH2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="AL3:AM3"/>
+    <mergeCell ref="C7:AI7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="C5:AI5"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:AI9"/>
+    <mergeCell ref="E10:AI10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="AH11:AH14"/>
+    <mergeCell ref="AI11:AI14"/>
+    <mergeCell ref="AJ11:AJ14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="AA11:AA14"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="C6:AI6"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="L43:T43"/>
+    <mergeCell ref="AA43:AE43"/>
+    <mergeCell ref="AB40:AG40"/>
+    <mergeCell ref="AH40:AJ40"/>
     <mergeCell ref="AJ9:AK10"/>
     <mergeCell ref="E44:I44"/>
     <mergeCell ref="L44:T44"/>
@@ -3177,50 +3201,23 @@
     <mergeCell ref="AD11:AD14"/>
     <mergeCell ref="AE11:AE14"/>
     <mergeCell ref="P41:V41"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="L43:T43"/>
-    <mergeCell ref="AA43:AE43"/>
-    <mergeCell ref="AB40:AG40"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="C7:AI7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="C5:AI5"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:AI9"/>
-    <mergeCell ref="E10:AI10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="AH11:AH14"/>
-    <mergeCell ref="AI11:AI14"/>
-    <mergeCell ref="AJ11:AJ14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="AA11:AA14"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="C6:AI6"/>
-    <mergeCell ref="C4:AI4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="D1:AH2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AF11:AF14"/>
-    <mergeCell ref="AG11:AG14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X14"/>
-    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="P40:V40"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="S11:S14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Projects\vedompst_CTK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Savikin\PycharmProjects\vedompst_CTK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9A806E3-E48E-44B0-97EC-D7ACE42AF5C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0BEF1562-72D5-4D0D-8C7D-FCF0B0E70284}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="Print_Area" localSheetId="0">Посещаемость!$A$1:$AM$47</definedName>
     <definedName name="Print_Titles" localSheetId="0">Посещаемость!$9:$15</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>(расшифровка подписи)</t>
   </si>
@@ -49,9 +48,6 @@
     <t>г.</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>»</t>
   </si>
   <si>
@@ -170,12 +166,15 @@
   </si>
   <si>
     <t>И.А. Савикина</t>
+  </si>
+  <si>
+    <t>Итого</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -459,7 +458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -550,10 +549,125 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -565,113 +679,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,14 +993,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3EC4E87-1F40-4C48-A980-28E4B152F7E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AR47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="V3" sqref="V3:W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1022,85 +1029,85 @@
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
-      <c r="R1" s="80"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="80"/>
-      <c r="U1" s="80"/>
-      <c r="V1" s="80"/>
-      <c r="W1" s="80"/>
-      <c r="X1" s="80"/>
-      <c r="Y1" s="80"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="80"/>
-      <c r="AB1" s="80"/>
-      <c r="AC1" s="80"/>
-      <c r="AD1" s="80"/>
-      <c r="AE1" s="80"/>
-      <c r="AF1" s="80"/>
-      <c r="AG1" s="80"/>
-      <c r="AH1" s="80"/>
+      <c r="D1" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
       <c r="AI1" s="17"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
-      <c r="AL1" s="79"/>
-      <c r="AM1" s="79"/>
+      <c r="AL1" s="47"/>
+      <c r="AM1" s="47"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
-      <c r="N2" s="80"/>
-      <c r="O2" s="80"/>
-      <c r="P2" s="80"/>
-      <c r="Q2" s="80"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="80"/>
-      <c r="T2" s="80"/>
-      <c r="U2" s="80"/>
-      <c r="V2" s="80"/>
-      <c r="W2" s="80"/>
-      <c r="X2" s="80"/>
-      <c r="Y2" s="80"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="80"/>
-      <c r="AB2" s="80"/>
-      <c r="AC2" s="80"/>
-      <c r="AD2" s="80"/>
-      <c r="AE2" s="80"/>
-      <c r="AF2" s="80"/>
-      <c r="AG2" s="80"/>
-      <c r="AH2" s="80"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
+      <c r="W2" s="48"/>
+      <c r="X2" s="48"/>
+      <c r="Y2" s="48"/>
+      <c r="Z2" s="48"/>
+      <c r="AA2" s="48"/>
+      <c r="AB2" s="48"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="48"/>
+      <c r="AE2" s="48"/>
+      <c r="AF2" s="48"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="48"/>
       <c r="AI2" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AJ2" s="17"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="76"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="41"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
@@ -1115,20 +1122,18 @@
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
       <c r="M3" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" s="81"/>
-      <c r="O3" s="81"/>
-      <c r="P3" s="81"/>
-      <c r="Q3" s="81"/>
-      <c r="R3" s="81"/>
-      <c r="S3" s="81"/>
-      <c r="T3" s="81"/>
-      <c r="U3" s="81"/>
-      <c r="V3" s="82" t="s">
-        <v>3</v>
-      </c>
-      <c r="W3" s="82"/>
+        <v>38</v>
+      </c>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
@@ -1143,178 +1148,178 @@
       <c r="AI3" s="17"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
-      <c r="AL3" s="75"/>
-      <c r="AM3" s="76"/>
+      <c r="AL3" s="40"/>
+      <c r="AM3" s="41"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-      <c r="Y4" s="78"/>
-      <c r="Z4" s="78"/>
-      <c r="AA4" s="78"/>
-      <c r="AB4" s="78"/>
-      <c r="AC4" s="78"/>
-      <c r="AD4" s="78"/>
-      <c r="AE4" s="78"/>
-      <c r="AF4" s="78"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="78"/>
-      <c r="AI4" s="78"/>
+      <c r="C4" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="46"/>
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="46"/>
+      <c r="AI4" s="46"/>
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
-      <c r="AL4" s="75"/>
-      <c r="AM4" s="76"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="41"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
-      <c r="F5" s="64"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="64"/>
-      <c r="J5" s="64"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="64"/>
-      <c r="AA5" s="64"/>
-      <c r="AB5" s="64"/>
-      <c r="AC5" s="64"/>
-      <c r="AD5" s="64"/>
-      <c r="AE5" s="64"/>
-      <c r="AF5" s="64"/>
-      <c r="AG5" s="64"/>
-      <c r="AH5" s="64"/>
-      <c r="AI5" s="64"/>
+        <v>35</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="50"/>
+      <c r="T5" s="50"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="50"/>
+      <c r="Z5" s="50"/>
+      <c r="AA5" s="50"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50"/>
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+      <c r="AH5" s="50"/>
+      <c r="AI5" s="50"/>
       <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
-      <c r="AL5" s="75"/>
-      <c r="AM5" s="76"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="41"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="77"/>
-      <c r="P6" s="77"/>
-      <c r="Q6" s="77"/>
-      <c r="R6" s="77"/>
-      <c r="S6" s="77"/>
-      <c r="T6" s="77"/>
-      <c r="U6" s="77"/>
-      <c r="V6" s="77"/>
-      <c r="W6" s="77"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="77"/>
-      <c r="Z6" s="77"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="77"/>
-      <c r="AC6" s="77"/>
-      <c r="AD6" s="77"/>
-      <c r="AE6" s="77"/>
-      <c r="AF6" s="77"/>
-      <c r="AG6" s="77"/>
-      <c r="AH6" s="77"/>
-      <c r="AI6" s="77"/>
+        <v>34</v>
+      </c>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
+      <c r="AB6" s="61"/>
+      <c r="AC6" s="61"/>
+      <c r="AD6" s="61"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AG6" s="61"/>
+      <c r="AH6" s="61"/>
+      <c r="AI6" s="61"/>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
-      <c r="AL6" s="75"/>
-      <c r="AM6" s="76"/>
+      <c r="AL6" s="40"/>
+      <c r="AM6" s="41"/>
     </row>
     <row r="7" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="64"/>
-      <c r="AB7" s="64"/>
-      <c r="AC7" s="64"/>
-      <c r="AD7" s="64"/>
-      <c r="AE7" s="64"/>
-      <c r="AF7" s="64"/>
-      <c r="AG7" s="64"/>
-      <c r="AH7" s="64"/>
-      <c r="AI7" s="64"/>
+        <v>33</v>
+      </c>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="65"/>
-      <c r="AM7" s="66"/>
+      <c r="AL7" s="51"/>
+      <c r="AM7" s="52"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -1357,362 +1362,362 @@
       <c r="AM8" s="17"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="67" t="s">
+      <c r="A9" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="67" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="D9" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="AK9" s="57"/>
+      <c r="E9" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK9" s="65"/>
       <c r="AL9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AM9" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="74"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="67"/>
+      <c r="AL10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AM10" s="23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="43">
+        <v>1</v>
+      </c>
+      <c r="F11" s="43">
+        <v>2</v>
+      </c>
+      <c r="G11" s="43">
+        <v>3</v>
+      </c>
+      <c r="H11" s="43">
+        <v>4</v>
+      </c>
+      <c r="I11" s="43">
+        <v>5</v>
+      </c>
+      <c r="J11" s="43">
+        <v>6</v>
+      </c>
+      <c r="K11" s="43">
+        <v>7</v>
+      </c>
+      <c r="L11" s="43">
+        <v>8</v>
+      </c>
+      <c r="M11" s="43">
+        <v>9</v>
+      </c>
+      <c r="N11" s="43">
+        <v>10</v>
+      </c>
+      <c r="O11" s="43">
+        <v>11</v>
+      </c>
+      <c r="P11" s="43">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>13</v>
+      </c>
+      <c r="R11" s="43">
+        <v>14</v>
+      </c>
+      <c r="S11" s="43">
+        <v>15</v>
+      </c>
+      <c r="T11" s="43">
+        <v>16</v>
+      </c>
+      <c r="U11" s="43">
+        <v>17</v>
+      </c>
+      <c r="V11" s="43">
+        <v>18</v>
+      </c>
+      <c r="W11" s="43">
+        <v>19</v>
+      </c>
+      <c r="X11" s="43">
+        <v>20</v>
+      </c>
+      <c r="Y11" s="43">
+        <v>21</v>
+      </c>
+      <c r="Z11" s="43">
+        <v>22</v>
+      </c>
+      <c r="AA11" s="43">
+        <v>23</v>
+      </c>
+      <c r="AB11" s="43">
+        <v>24</v>
+      </c>
+      <c r="AC11" s="43">
+        <v>25</v>
+      </c>
+      <c r="AD11" s="43">
+        <v>26</v>
+      </c>
+      <c r="AE11" s="43">
+        <v>27</v>
+      </c>
+      <c r="AF11" s="43">
+        <v>28</v>
+      </c>
+      <c r="AG11" s="43">
         <v>29</v>
       </c>
-      <c r="AM9" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
-      <c r="M10" s="71"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="71"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="71"/>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="71"/>
-      <c r="W10" s="71"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="71"/>
-      <c r="Z10" s="71"/>
-      <c r="AA10" s="71"/>
-      <c r="AB10" s="71"/>
-      <c r="AC10" s="71"/>
-      <c r="AD10" s="71"/>
-      <c r="AE10" s="71"/>
-      <c r="AF10" s="71"/>
-      <c r="AG10" s="71"/>
-      <c r="AH10" s="71"/>
-      <c r="AI10" s="71"/>
-      <c r="AJ10" s="58"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM10" s="23" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A11" s="54"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="47">
+      <c r="AH11" s="43">
+        <v>30</v>
+      </c>
+      <c r="AI11" s="43">
+        <v>31</v>
+      </c>
+      <c r="AJ11" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="AK11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM11" s="23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="75"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="44"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="44"/>
+      <c r="R12" s="44"/>
+      <c r="S12" s="44"/>
+      <c r="T12" s="44"/>
+      <c r="U12" s="44"/>
+      <c r="V12" s="44"/>
+      <c r="W12" s="44"/>
+      <c r="X12" s="44"/>
+      <c r="Y12" s="44"/>
+      <c r="Z12" s="44"/>
+      <c r="AA12" s="44"/>
+      <c r="AB12" s="44"/>
+      <c r="AC12" s="44"/>
+      <c r="AD12" s="44"/>
+      <c r="AE12" s="44"/>
+      <c r="AF12" s="44"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="44"/>
+      <c r="AI12" s="44"/>
+      <c r="AJ12" s="59"/>
+      <c r="AK12" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM12" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="59"/>
+      <c r="AK13" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL13" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AM13" s="23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
+      <c r="O14" s="45"/>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="60"/>
+      <c r="AK14" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="AM14" s="23"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A15" s="82">
         <v>1</v>
       </c>
-      <c r="F11" s="47">
-        <v>2</v>
-      </c>
-      <c r="G11" s="47">
-        <v>3</v>
-      </c>
-      <c r="H11" s="47">
-        <v>4</v>
-      </c>
-      <c r="I11" s="47">
-        <v>5</v>
-      </c>
-      <c r="J11" s="47">
-        <v>6</v>
-      </c>
-      <c r="K11" s="47">
-        <v>7</v>
-      </c>
-      <c r="L11" s="47">
-        <v>8</v>
-      </c>
-      <c r="M11" s="47">
-        <v>9</v>
-      </c>
-      <c r="N11" s="47">
-        <v>10</v>
-      </c>
-      <c r="O11" s="47">
-        <v>11</v>
-      </c>
-      <c r="P11" s="47">
-        <v>12</v>
-      </c>
-      <c r="Q11" s="47">
-        <v>13</v>
-      </c>
-      <c r="R11" s="47">
-        <v>14</v>
-      </c>
-      <c r="S11" s="47">
-        <v>15</v>
-      </c>
-      <c r="T11" s="47">
-        <v>16</v>
-      </c>
-      <c r="U11" s="47">
-        <v>17</v>
-      </c>
-      <c r="V11" s="47">
-        <v>18</v>
-      </c>
-      <c r="W11" s="47">
-        <v>19</v>
-      </c>
-      <c r="X11" s="47">
-        <v>20</v>
-      </c>
-      <c r="Y11" s="47">
-        <v>21</v>
-      </c>
-      <c r="Z11" s="47">
-        <v>22</v>
-      </c>
-      <c r="AA11" s="47">
-        <v>23</v>
-      </c>
-      <c r="AB11" s="47">
-        <v>24</v>
-      </c>
-      <c r="AC11" s="47">
-        <v>25</v>
-      </c>
-      <c r="AD11" s="47">
-        <v>26</v>
-      </c>
-      <c r="AE11" s="47">
-        <v>27</v>
-      </c>
-      <c r="AF11" s="47">
-        <v>28</v>
-      </c>
-      <c r="AG11" s="47">
-        <v>29</v>
-      </c>
-      <c r="AH11" s="47">
-        <v>30</v>
-      </c>
-      <c r="AI11" s="47">
-        <v>31</v>
-      </c>
-      <c r="AJ11" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK11" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="AL11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM11" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="54"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="48"/>
-      <c r="AF12" s="48"/>
-      <c r="AG12" s="48"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="73"/>
-      <c r="AK12" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AL12" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM12" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="73"/>
-      <c r="AK13" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM13" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" s="41"/>
-      <c r="B14" s="42"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="49"/>
-      <c r="T14" s="49"/>
-      <c r="U14" s="49"/>
-      <c r="V14" s="49"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="49"/>
-      <c r="Y14" s="49"/>
-      <c r="Z14" s="49"/>
-      <c r="AA14" s="49"/>
-      <c r="AB14" s="49"/>
-      <c r="AC14" s="49"/>
-      <c r="AD14" s="49"/>
-      <c r="AE14" s="49"/>
-      <c r="AF14" s="49"/>
-      <c r="AG14" s="49"/>
-      <c r="AH14" s="49"/>
-      <c r="AI14" s="49"/>
-      <c r="AJ14" s="74"/>
-      <c r="AK14" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="AL14" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="AM14" s="23"/>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="43">
-        <v>1</v>
-      </c>
-      <c r="B15" s="44"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="22">
         <v>2</v>
       </c>
@@ -2808,17 +2813,25 @@
       <c r="AD38" s="37"/>
       <c r="AE38" s="37"/>
       <c r="AF38" s="37"/>
-      <c r="AG38" s="37"/>
-      <c r="AH38" s="37"/>
-      <c r="AI38" s="37"/>
-      <c r="AJ38" s="37"/>
-      <c r="AK38" s="38"/>
-      <c r="AL38" s="37"/>
-      <c r="AM38" s="39"/>
+      <c r="AG38" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH38" s="78"/>
+      <c r="AI38" s="79"/>
+      <c r="AJ38" s="37">
+        <f>SUM(AJ16:AJ37)</f>
+        <v>0</v>
+      </c>
+      <c r="AK38" s="37"/>
+      <c r="AL38" s="37">
+        <f t="shared" ref="AL38" si="0">SUM(AL16:AL37)</f>
+        <v>0</v>
+      </c>
+      <c r="AM38" s="38"/>
     </row>
     <row r="39" spans="1:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="32"/>
-      <c r="B39" s="40"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="32"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
@@ -2859,105 +2872,105 @@
     </row>
     <row r="40" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="9"/>
-      <c r="E40" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
-      <c r="J40" s="45"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="46"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
+      <c r="E40" s="84" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
       <c r="O40" s="7"/>
-      <c r="P40" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="46"/>
-      <c r="R40" s="46"/>
-      <c r="S40" s="46"/>
-      <c r="T40" s="46"/>
-      <c r="U40" s="46"/>
-      <c r="V40" s="46"/>
+      <c r="P40" s="62" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="62"/>
+      <c r="V40" s="62"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="46" t="s">
+      <c r="X40" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="AC40" s="46"/>
-      <c r="AD40" s="46"/>
-      <c r="AE40" s="46"/>
-      <c r="AF40" s="46"/>
-      <c r="AG40" s="46"/>
-      <c r="AH40" s="46"/>
-      <c r="AI40" s="46"/>
-      <c r="AJ40" s="46"/>
-      <c r="AK40" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL40" s="46"/>
-      <c r="AM40" s="46"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC40" s="62"/>
+      <c r="AD40" s="62"/>
+      <c r="AE40" s="62"/>
+      <c r="AF40" s="62"/>
+      <c r="AG40" s="62"/>
+      <c r="AH40" s="62"/>
+      <c r="AI40" s="62"/>
+      <c r="AJ40" s="62"/>
+      <c r="AK40" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="AL40" s="62"/>
+      <c r="AM40" s="62"/>
     </row>
     <row r="41" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B41" s="7"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60" t="s">
+      <c r="E41" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="68"/>
+      <c r="I41" s="68"/>
+      <c r="J41" s="68"/>
+      <c r="K41" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
+      <c r="L41" s="68"/>
+      <c r="M41" s="68"/>
+      <c r="N41" s="68"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="60"/>
-      <c r="V41" s="60"/>
+      <c r="P41" s="68"/>
+      <c r="Q41" s="68"/>
+      <c r="R41" s="68"/>
+      <c r="S41" s="68"/>
+      <c r="T41" s="68"/>
+      <c r="U41" s="68"/>
+      <c r="V41" s="68"/>
       <c r="W41" s="2"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="60" t="s">
-        <v>7</v>
-      </c>
-      <c r="AC41" s="60"/>
-      <c r="AD41" s="60"/>
-      <c r="AE41" s="60"/>
-      <c r="AF41" s="60"/>
-      <c r="AG41" s="60"/>
-      <c r="AH41" s="60" t="s">
+      <c r="X41" s="70"/>
+      <c r="Y41" s="70"/>
+      <c r="Z41" s="70"/>
+      <c r="AA41" s="70"/>
+      <c r="AB41" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC41" s="68"/>
+      <c r="AD41" s="68"/>
+      <c r="AE41" s="68"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="AI41" s="60"/>
-      <c r="AJ41" s="60"/>
-      <c r="AK41" s="60" t="s">
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="68"/>
+      <c r="AK41" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="AL41" s="60"/>
-      <c r="AM41" s="60"/>
+      <c r="AL41" s="68"/>
+      <c r="AM41" s="68"/>
     </row>
     <row r="42" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B42" s="3"/>
@@ -3001,35 +3014,35 @@
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B43" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
-      <c r="L43" s="46"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="46"/>
-      <c r="Q43" s="46"/>
-      <c r="R43" s="46"/>
-      <c r="S43" s="46"/>
-      <c r="T43" s="46"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62"/>
+      <c r="N43" s="62"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
       <c r="U43" s="7"/>
       <c r="V43" s="7"/>
       <c r="W43" s="7"/>
       <c r="X43" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Y43" s="8"/>
       <c r="Z43" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AA43" s="63"/>
       <c r="AB43" s="63"/>
@@ -3037,9 +3050,7 @@
       <c r="AD43" s="63"/>
       <c r="AE43" s="63"/>
       <c r="AF43" s="5"/>
-      <c r="AG43" s="30" t="s">
-        <v>3</v>
-      </c>
+      <c r="AG43" s="30"/>
       <c r="AH43" s="3" t="s">
         <v>2</v>
       </c>
@@ -3053,26 +3064,26 @@
       <c r="B44" s="6"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="68"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="60" t="s">
+      <c r="L44" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="60"/>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="60"/>
-      <c r="T44" s="60"/>
+      <c r="M44" s="68"/>
+      <c r="N44" s="68"/>
+      <c r="O44" s="68"/>
+      <c r="P44" s="68"/>
+      <c r="Q44" s="68"/>
+      <c r="R44" s="68"/>
+      <c r="S44" s="68"/>
+      <c r="T44" s="68"/>
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
@@ -3095,8 +3106,8 @@
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B45" s="3"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
       <c r="G45" s="3"/>
@@ -3140,7 +3151,69 @@
       <c r="B47" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="78">
+    <mergeCell ref="AG38:AI38"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="K40:N40"/>
+    <mergeCell ref="P40:V40"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="S11:S14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="AJ9:AK10"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="L44:T44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="K41:N41"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="AB41:AG41"/>
+    <mergeCell ref="AH41:AJ41"/>
+    <mergeCell ref="AK41:AM41"/>
+    <mergeCell ref="X40:AA41"/>
+    <mergeCell ref="AK40:AM40"/>
+    <mergeCell ref="AC11:AC14"/>
+    <mergeCell ref="AD11:AD14"/>
+    <mergeCell ref="AE11:AE14"/>
+    <mergeCell ref="P41:V41"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="L43:T43"/>
+    <mergeCell ref="AA43:AE43"/>
+    <mergeCell ref="AB40:AG40"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="C7:AI7"/>
+    <mergeCell ref="AL7:AM7"/>
+    <mergeCell ref="C5:AI5"/>
+    <mergeCell ref="C9:C14"/>
+    <mergeCell ref="D9:D14"/>
+    <mergeCell ref="E9:AI9"/>
+    <mergeCell ref="E10:AI10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="AH11:AH14"/>
+    <mergeCell ref="AI11:AI14"/>
+    <mergeCell ref="AJ11:AJ14"/>
+    <mergeCell ref="Y11:Y14"/>
+    <mergeCell ref="Z11:Z14"/>
+    <mergeCell ref="AA11:AA14"/>
+    <mergeCell ref="AL5:AM5"/>
+    <mergeCell ref="C6:AI6"/>
+    <mergeCell ref="C4:AI4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="D1:AH2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="AL6:AM6"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="AF11:AF14"/>
@@ -3157,67 +3230,6 @@
     <mergeCell ref="W11:W14"/>
     <mergeCell ref="X11:X14"/>
     <mergeCell ref="AB11:AB14"/>
-    <mergeCell ref="C4:AI4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="D1:AH2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="C7:AI7"/>
-    <mergeCell ref="AL7:AM7"/>
-    <mergeCell ref="C5:AI5"/>
-    <mergeCell ref="C9:C14"/>
-    <mergeCell ref="D9:D14"/>
-    <mergeCell ref="E9:AI9"/>
-    <mergeCell ref="E10:AI10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="AH11:AH14"/>
-    <mergeCell ref="AI11:AI14"/>
-    <mergeCell ref="AJ11:AJ14"/>
-    <mergeCell ref="Y11:Y14"/>
-    <mergeCell ref="Z11:Z14"/>
-    <mergeCell ref="AA11:AA14"/>
-    <mergeCell ref="AL5:AM5"/>
-    <mergeCell ref="C6:AI6"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="L43:T43"/>
-    <mergeCell ref="AA43:AE43"/>
-    <mergeCell ref="AB40:AG40"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AJ9:AK10"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="L44:T44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="AB41:AG41"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AK41:AM41"/>
-    <mergeCell ref="X40:AA41"/>
-    <mergeCell ref="AK40:AM40"/>
-    <mergeCell ref="AC11:AC14"/>
-    <mergeCell ref="AD11:AD14"/>
-    <mergeCell ref="AE11:AE14"/>
-    <mergeCell ref="P41:V41"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="P40:V40"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="S11:S14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Savikin\PycharmProjects\vedompst_CTK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Python Projects\GitHub_aisavikin\vedompst_CTK\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFABAD1E-E579-4E2B-9DF4-40086D25DCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Посещаемость" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">Посещаемость!$A$1:$AM$47</definedName>
+    <definedName name="Print_Area" localSheetId="0">Посещаемость!$A$1:$AM$54</definedName>
     <definedName name="Print_Titles" localSheetId="0">Посещаемость!$9:$15</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -174,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -458,7 +459,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,11 +523,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,9 +537,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -549,117 +548,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,6 +571,113 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -993,14 +992,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR47"/>
+  <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:W3"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE43" sqref="AE43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1029,85 +1028,85 @@
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="80" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="80"/>
+      <c r="L1" s="80"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
+      <c r="R1" s="80"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="80"/>
+      <c r="U1" s="80"/>
+      <c r="V1" s="80"/>
+      <c r="W1" s="80"/>
+      <c r="X1" s="80"/>
+      <c r="Y1" s="80"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="80"/>
+      <c r="AG1" s="80"/>
+      <c r="AH1" s="80"/>
       <c r="AI1" s="17"/>
       <c r="AJ1" s="17"/>
       <c r="AK1" s="17"/>
-      <c r="AL1" s="47"/>
-      <c r="AM1" s="47"/>
+      <c r="AL1" s="79"/>
+      <c r="AM1" s="79"/>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
-      <c r="W2" s="48"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="48"/>
-      <c r="Z2" s="48"/>
-      <c r="AA2" s="48"/>
-      <c r="AB2" s="48"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="48"/>
-      <c r="AE2" s="48"/>
-      <c r="AF2" s="48"/>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="48"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="80"/>
+      <c r="N2" s="80"/>
+      <c r="O2" s="80"/>
+      <c r="P2" s="80"/>
+      <c r="Q2" s="80"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="80"/>
+      <c r="U2" s="80"/>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="80"/>
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="80"/>
+      <c r="AG2" s="80"/>
+      <c r="AH2" s="80"/>
       <c r="AI2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="AJ2" s="17"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="41"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="76"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
@@ -1124,16 +1123,16 @@
       <c r="M3" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="P3" s="81"/>
+      <c r="Q3" s="81"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="82"/>
+      <c r="W3" s="82"/>
       <c r="X3" s="17"/>
       <c r="Y3" s="17"/>
       <c r="Z3" s="17"/>
@@ -1148,178 +1147,178 @@
       <c r="AI3" s="17"/>
       <c r="AJ3" s="17"/>
       <c r="AK3" s="17"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="41"/>
+      <c r="AL3" s="75"/>
+      <c r="AM3" s="76"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
-      <c r="T4" s="46"/>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46"/>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="46"/>
-      <c r="AI4" s="46"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
+      <c r="R4" s="78"/>
+      <c r="S4" s="78"/>
+      <c r="T4" s="78"/>
+      <c r="U4" s="78"/>
+      <c r="V4" s="78"/>
+      <c r="W4" s="78"/>
+      <c r="X4" s="78"/>
+      <c r="Y4" s="78"/>
+      <c r="Z4" s="78"/>
+      <c r="AA4" s="78"/>
+      <c r="AB4" s="78"/>
+      <c r="AC4" s="78"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
       <c r="AJ4" s="17"/>
       <c r="AK4" s="17"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="41"/>
+      <c r="AL4" s="75"/>
+      <c r="AM4" s="76"/>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="50"/>
-      <c r="R5" s="50"/>
-      <c r="S5" s="50"/>
-      <c r="T5" s="50"/>
-      <c r="U5" s="50"/>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="50"/>
-      <c r="AA5" s="50"/>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50"/>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="50"/>
-      <c r="AF5" s="50"/>
-      <c r="AG5" s="50"/>
-      <c r="AH5" s="50"/>
-      <c r="AI5" s="50"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="64"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="64"/>
+      <c r="AB5" s="64"/>
+      <c r="AC5" s="64"/>
+      <c r="AD5" s="64"/>
+      <c r="AE5" s="64"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
+      <c r="AH5" s="64"/>
+      <c r="AI5" s="64"/>
       <c r="AJ5" s="17"/>
       <c r="AK5" s="17"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="41"/>
+      <c r="AL5" s="75"/>
+      <c r="AM5" s="76"/>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
-      <c r="AB6" s="61"/>
-      <c r="AC6" s="61"/>
-      <c r="AD6" s="61"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AG6" s="61"/>
-      <c r="AH6" s="61"/>
-      <c r="AI6" s="61"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="77"/>
+      <c r="T6" s="77"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="77"/>
+      <c r="Z6" s="77"/>
+      <c r="AA6" s="77"/>
+      <c r="AB6" s="77"/>
+      <c r="AC6" s="77"/>
+      <c r="AD6" s="77"/>
+      <c r="AE6" s="77"/>
+      <c r="AF6" s="77"/>
+      <c r="AG6" s="77"/>
+      <c r="AH6" s="77"/>
+      <c r="AI6" s="77"/>
       <c r="AJ6" s="17"/>
       <c r="AK6" s="17"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="41"/>
+      <c r="AL6" s="75"/>
+      <c r="AM6" s="76"/>
     </row>
     <row r="7" spans="1:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="50"/>
-      <c r="AI7" s="50"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="64"/>
+      <c r="AB7" s="64"/>
+      <c r="AC7" s="64"/>
+      <c r="AD7" s="64"/>
+      <c r="AE7" s="64"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="64"/>
+      <c r="AI7" s="64"/>
       <c r="AJ7" s="17"/>
       <c r="AK7" s="17"/>
-      <c r="AL7" s="51"/>
-      <c r="AM7" s="52"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="66"/>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -1362,53 +1361,53 @@
       <c r="AM8" s="17"/>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="71" t="s">
+      <c r="A9" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="51"/>
+      <c r="C9" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="56" t="s">
+      <c r="E9" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="64" t="s">
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="AK9" s="65"/>
+      <c r="AK9" s="57"/>
       <c r="AL9" s="15" t="s">
         <v>28</v>
       </c>
@@ -1417,45 +1416,45 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="74"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="57"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="57"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="57"/>
-      <c r="AE10" s="57"/>
-      <c r="AF10" s="57"/>
-      <c r="AG10" s="57"/>
-      <c r="AH10" s="57"/>
-      <c r="AI10" s="57"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="67"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="71"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="71"/>
+      <c r="Z10" s="71"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="71"/>
+      <c r="AC10" s="71"/>
+      <c r="AD10" s="71"/>
+      <c r="AE10" s="71"/>
+      <c r="AF10" s="71"/>
+      <c r="AG10" s="71"/>
+      <c r="AH10" s="71"/>
+      <c r="AI10" s="71"/>
+      <c r="AJ10" s="58"/>
+      <c r="AK10" s="59"/>
       <c r="AL10" s="16" t="s">
         <v>25</v>
       </c>
@@ -1464,104 +1463,104 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="43">
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="47">
         <v>1</v>
       </c>
-      <c r="F11" s="43">
+      <c r="F11" s="47">
         <v>2</v>
       </c>
-      <c r="G11" s="43">
+      <c r="G11" s="47">
         <v>3</v>
       </c>
-      <c r="H11" s="43">
+      <c r="H11" s="47">
         <v>4</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="47">
         <v>5</v>
       </c>
-      <c r="J11" s="43">
+      <c r="J11" s="47">
         <v>6</v>
       </c>
-      <c r="K11" s="43">
+      <c r="K11" s="47">
         <v>7</v>
       </c>
-      <c r="L11" s="43">
+      <c r="L11" s="47">
         <v>8</v>
       </c>
-      <c r="M11" s="43">
+      <c r="M11" s="47">
         <v>9</v>
       </c>
-      <c r="N11" s="43">
+      <c r="N11" s="47">
         <v>10</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="47">
         <v>11</v>
       </c>
-      <c r="P11" s="43">
+      <c r="P11" s="47">
         <v>12</v>
       </c>
-      <c r="Q11" s="43">
+      <c r="Q11" s="47">
         <v>13</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="47">
         <v>14</v>
       </c>
-      <c r="S11" s="43">
+      <c r="S11" s="47">
         <v>15</v>
       </c>
-      <c r="T11" s="43">
+      <c r="T11" s="47">
         <v>16</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="47">
         <v>17</v>
       </c>
-      <c r="V11" s="43">
+      <c r="V11" s="47">
         <v>18</v>
       </c>
-      <c r="W11" s="43">
+      <c r="W11" s="47">
         <v>19</v>
       </c>
-      <c r="X11" s="43">
+      <c r="X11" s="47">
         <v>20</v>
       </c>
-      <c r="Y11" s="43">
+      <c r="Y11" s="47">
         <v>21</v>
       </c>
-      <c r="Z11" s="43">
+      <c r="Z11" s="47">
         <v>22</v>
       </c>
-      <c r="AA11" s="43">
+      <c r="AA11" s="47">
         <v>23</v>
       </c>
-      <c r="AB11" s="43">
+      <c r="AB11" s="47">
         <v>24</v>
       </c>
-      <c r="AC11" s="43">
+      <c r="AC11" s="47">
         <v>25</v>
       </c>
-      <c r="AD11" s="43">
+      <c r="AD11" s="47">
         <v>26</v>
       </c>
-      <c r="AE11" s="43">
+      <c r="AE11" s="47">
         <v>27</v>
       </c>
-      <c r="AF11" s="43">
+      <c r="AF11" s="47">
         <v>28</v>
       </c>
-      <c r="AG11" s="43">
+      <c r="AG11" s="47">
         <v>29</v>
       </c>
-      <c r="AH11" s="43">
+      <c r="AH11" s="47">
         <v>30</v>
       </c>
-      <c r="AI11" s="43">
+      <c r="AI11" s="47">
         <v>31</v>
       </c>
-      <c r="AJ11" s="58" t="s">
+      <c r="AJ11" s="72" t="s">
         <v>23</v>
       </c>
       <c r="AK11" s="23" t="s">
@@ -1575,42 +1574,42 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="44"/>
-      <c r="Y12" s="44"/>
-      <c r="Z12" s="44"/>
-      <c r="AA12" s="44"/>
-      <c r="AB12" s="44"/>
-      <c r="AC12" s="44"/>
-      <c r="AD12" s="44"/>
-      <c r="AE12" s="44"/>
-      <c r="AF12" s="44"/>
-      <c r="AG12" s="44"/>
-      <c r="AH12" s="44"/>
-      <c r="AI12" s="44"/>
-      <c r="AJ12" s="59"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="48"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="48"/>
+      <c r="X12" s="48"/>
+      <c r="Y12" s="48"/>
+      <c r="Z12" s="48"/>
+      <c r="AA12" s="48"/>
+      <c r="AB12" s="48"/>
+      <c r="AC12" s="48"/>
+      <c r="AD12" s="48"/>
+      <c r="AE12" s="48"/>
+      <c r="AF12" s="48"/>
+      <c r="AG12" s="48"/>
+      <c r="AH12" s="48"/>
+      <c r="AI12" s="48"/>
+      <c r="AJ12" s="73"/>
       <c r="AK12" s="23" t="s">
         <v>19</v>
       </c>
@@ -1622,42 +1621,42 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
-      <c r="V13" s="44"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="44"/>
-      <c r="Y13" s="44"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="44"/>
-      <c r="AB13" s="44"/>
-      <c r="AC13" s="44"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="44"/>
-      <c r="AF13" s="44"/>
-      <c r="AG13" s="44"/>
-      <c r="AH13" s="44"/>
-      <c r="AI13" s="44"/>
-      <c r="AJ13" s="59"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="48"/>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="S13" s="48"/>
+      <c r="T13" s="48"/>
+      <c r="U13" s="48"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="48"/>
+      <c r="X13" s="48"/>
+      <c r="Y13" s="48"/>
+      <c r="Z13" s="48"/>
+      <c r="AA13" s="48"/>
+      <c r="AB13" s="48"/>
+      <c r="AC13" s="48"/>
+      <c r="AD13" s="48"/>
+      <c r="AE13" s="48"/>
+      <c r="AF13" s="48"/>
+      <c r="AG13" s="48"/>
+      <c r="AH13" s="48"/>
+      <c r="AI13" s="48"/>
+      <c r="AJ13" s="73"/>
       <c r="AK13" s="26" t="s">
         <v>16</v>
       </c>
@@ -1669,42 +1668,42 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" s="80"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="45"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
-      <c r="T14" s="45"/>
-      <c r="U14" s="45"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="45"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="45"/>
-      <c r="AA14" s="45"/>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="45"/>
-      <c r="AD14" s="45"/>
-      <c r="AE14" s="45"/>
-      <c r="AF14" s="45"/>
-      <c r="AG14" s="45"/>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="45"/>
-      <c r="AJ14" s="60"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
+      <c r="AA14" s="49"/>
+      <c r="AB14" s="49"/>
+      <c r="AC14" s="49"/>
+      <c r="AD14" s="49"/>
+      <c r="AE14" s="49"/>
+      <c r="AF14" s="49"/>
+      <c r="AG14" s="49"/>
+      <c r="AH14" s="49"/>
+      <c r="AI14" s="49"/>
+      <c r="AJ14" s="74"/>
       <c r="AK14" s="23" t="s">
         <v>13</v>
       </c>
@@ -1714,10 +1713,10 @@
       <c r="AM14" s="23"/>
     </row>
     <row r="15" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A15" s="82">
+      <c r="A15" s="43">
         <v>1</v>
       </c>
-      <c r="B15" s="83"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="22">
         <v>2</v>
       </c>
@@ -2779,418 +2778,703 @@
       <c r="AM37" s="27"/>
     </row>
     <row r="38" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="33">
+      <c r="A38" s="12">
         <v>23</v>
       </c>
-      <c r="B38" s="34"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="37"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="37"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="37"/>
-      <c r="U38" s="37"/>
-      <c r="V38" s="37"/>
-      <c r="W38" s="37"/>
-      <c r="X38" s="37"/>
-      <c r="Y38" s="37"/>
-      <c r="Z38" s="37"/>
-      <c r="AA38" s="37"/>
-      <c r="AB38" s="37"/>
-      <c r="AC38" s="37"/>
-      <c r="AD38" s="37"/>
-      <c r="AE38" s="37"/>
-      <c r="AF38" s="37"/>
-      <c r="AG38" s="77" t="s">
+      <c r="B38" s="11"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="10"/>
+      <c r="T38" s="10"/>
+      <c r="U38" s="10"/>
+      <c r="V38" s="10"/>
+      <c r="W38" s="10"/>
+      <c r="X38" s="10"/>
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="10"/>
+      <c r="AC38" s="10"/>
+      <c r="AD38" s="10"/>
+      <c r="AE38" s="10"/>
+      <c r="AF38" s="10"/>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10"/>
+      <c r="AJ38" s="10"/>
+      <c r="AK38" s="25"/>
+      <c r="AL38" s="10"/>
+      <c r="AM38" s="27"/>
+    </row>
+    <row r="39" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>24</v>
+      </c>
+      <c r="B39" s="11"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="25"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="27"/>
+    </row>
+    <row r="40" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>25</v>
+      </c>
+      <c r="B40" s="11"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="25"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="27"/>
+    </row>
+    <row r="41" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>26</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="25"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="27"/>
+    </row>
+    <row r="42" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>27</v>
+      </c>
+      <c r="B42" s="11"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="25"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="27"/>
+    </row>
+    <row r="43" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>28</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="25"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="27"/>
+    </row>
+    <row r="44" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>29</v>
+      </c>
+      <c r="B44" s="11"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="10"/>
+      <c r="Y44" s="10"/>
+      <c r="Z44" s="10"/>
+      <c r="AA44" s="10"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
+      <c r="AF44" s="10"/>
+      <c r="AG44" s="10"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="10"/>
+      <c r="AJ44" s="10"/>
+      <c r="AK44" s="25"/>
+      <c r="AL44" s="10"/>
+      <c r="AM44" s="27"/>
+    </row>
+    <row r="45" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="12">
+        <v>30</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+      <c r="Z45" s="35"/>
+      <c r="AA45" s="35"/>
+      <c r="AB45" s="35"/>
+      <c r="AC45" s="35"/>
+      <c r="AD45" s="35"/>
+      <c r="AE45" s="35"/>
+      <c r="AF45" s="35"/>
+      <c r="AG45" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AH38" s="78"/>
-      <c r="AI38" s="79"/>
-      <c r="AJ38" s="37">
-        <f>SUM(AJ16:AJ37)</f>
+      <c r="AH45" s="39"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="35">
+        <f>SUM(AJ16:AJ44)</f>
         <v>0</v>
       </c>
-      <c r="AK38" s="37"/>
-      <c r="AL38" s="37">
-        <f t="shared" ref="AL38" si="0">SUM(AL16:AL37)</f>
+      <c r="AK45" s="35"/>
+      <c r="AL45" s="35">
+        <f t="shared" ref="AL45" si="0">SUM(AL16:AL44)</f>
         <v>0</v>
       </c>
-      <c r="AM38" s="38"/>
-    </row>
-    <row r="39" spans="1:39" s="31" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="32"/>
-      <c r="B39" s="39"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="32"/>
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="Q39" s="32"/>
-      <c r="R39" s="32"/>
-      <c r="S39" s="32"/>
-      <c r="T39" s="32"/>
-      <c r="U39" s="32"/>
-      <c r="V39" s="32"/>
-      <c r="W39" s="32"/>
-      <c r="X39" s="32"/>
-      <c r="Y39" s="32"/>
-      <c r="Z39" s="32"/>
-      <c r="AA39" s="32"/>
-      <c r="AB39" s="32"/>
-      <c r="AC39" s="32"/>
-      <c r="AD39" s="32"/>
-      <c r="AE39" s="32"/>
-      <c r="AF39" s="32"/>
-      <c r="AG39" s="32"/>
-      <c r="AH39" s="32"/>
-      <c r="AI39" s="32"/>
-      <c r="AJ39" s="32"/>
-      <c r="AK39" s="32"/>
-      <c r="AL39" s="32"/>
-      <c r="AM39" s="32"/>
-    </row>
-    <row r="40" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="3" t="s">
+      <c r="AM45" s="36"/>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A46" s="31"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+      <c r="T46" s="31"/>
+      <c r="U46" s="31"/>
+      <c r="V46" s="31"/>
+      <c r="W46" s="31"/>
+      <c r="X46" s="31"/>
+      <c r="Y46" s="31"/>
+      <c r="Z46" s="31"/>
+      <c r="AA46" s="31"/>
+      <c r="AB46" s="31"/>
+      <c r="AC46" s="31"/>
+      <c r="AD46" s="31"/>
+      <c r="AE46" s="31"/>
+      <c r="AF46" s="31"/>
+      <c r="AG46" s="31"/>
+      <c r="AH46" s="31"/>
+      <c r="AI46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="31"/>
+      <c r="AL46" s="31"/>
+      <c r="AM46" s="31"/>
+    </row>
+    <row r="47" spans="1:39" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="84" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="84"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="7"/>
-      <c r="P40" s="62" t="s">
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="46"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="46"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="Q40" s="62"/>
-      <c r="R40" s="62"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="70" t="s">
+      <c r="Q47" s="46"/>
+      <c r="R47" s="46"/>
+      <c r="S47" s="46"/>
+      <c r="T47" s="46"/>
+      <c r="U47" s="46"/>
+      <c r="V47" s="46"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="Y40" s="70"/>
-      <c r="Z40" s="70"/>
-      <c r="AA40" s="70"/>
-      <c r="AB40" s="62" t="s">
+      <c r="Y47" s="62"/>
+      <c r="Z47" s="62"/>
+      <c r="AA47" s="62"/>
+      <c r="AB47" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="62"/>
-      <c r="AH40" s="62"/>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="62" t="s">
+      <c r="AC47" s="46"/>
+      <c r="AD47" s="46"/>
+      <c r="AE47" s="46"/>
+      <c r="AF47" s="46"/>
+      <c r="AG47" s="46"/>
+      <c r="AH47" s="46"/>
+      <c r="AI47" s="46"/>
+      <c r="AJ47" s="46"/>
+      <c r="AK47" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AL40" s="62"/>
-      <c r="AM40" s="62"/>
-    </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B41" s="7"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="68" t="s">
+      <c r="AL47" s="46"/>
+      <c r="AM47" s="46"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="B48" s="7"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68" t="s">
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="68"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="68"/>
-      <c r="Q41" s="68"/>
-      <c r="R41" s="68"/>
-      <c r="S41" s="68"/>
-      <c r="T41" s="68"/>
-      <c r="U41" s="68"/>
-      <c r="V41" s="68"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="70"/>
-      <c r="Y41" s="70"/>
-      <c r="Z41" s="70"/>
-      <c r="AA41" s="70"/>
-      <c r="AB41" s="68" t="s">
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="62"/>
+      <c r="Y48" s="62"/>
+      <c r="Z48" s="62"/>
+      <c r="AA48" s="62"/>
+      <c r="AB48" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AC41" s="68"/>
-      <c r="AD41" s="68"/>
-      <c r="AE41" s="68"/>
-      <c r="AF41" s="68"/>
-      <c r="AG41" s="68"/>
-      <c r="AH41" s="68" t="s">
+      <c r="AC48" s="60"/>
+      <c r="AD48" s="60"/>
+      <c r="AE48" s="60"/>
+      <c r="AF48" s="60"/>
+      <c r="AG48" s="60"/>
+      <c r="AH48" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="AI41" s="68"/>
-      <c r="AJ41" s="68"/>
-      <c r="AK41" s="68" t="s">
+      <c r="AI48" s="60"/>
+      <c r="AJ48" s="60"/>
+      <c r="AK48" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="AL41" s="68"/>
-      <c r="AM41" s="68"/>
-    </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B42" s="3"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="6"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="6"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="6"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="6"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="6"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="6"/>
-      <c r="AM42" s="6"/>
-    </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B43" s="3" t="s">
+      <c r="AL48" s="60"/>
+      <c r="AM48" s="60"/>
+    </row>
+    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B49" s="3"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
+      <c r="AD49" s="6"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="6"/>
+      <c r="AH49" s="6"/>
+      <c r="AI49" s="6"/>
+      <c r="AJ49" s="6"/>
+      <c r="AK49" s="6"/>
+      <c r="AL49" s="6"/>
+      <c r="AM49" s="6"/>
+    </row>
+    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B50" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
-      <c r="X43" s="7" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="46"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="46"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="46"/>
+      <c r="M50" s="46"/>
+      <c r="N50" s="46"/>
+      <c r="O50" s="46"/>
+      <c r="P50" s="46"/>
+      <c r="Q50" s="46"/>
+      <c r="R50" s="46"/>
+      <c r="S50" s="46"/>
+      <c r="T50" s="46"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="7" t="s">
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AA43" s="63"/>
-      <c r="AB43" s="63"/>
-      <c r="AC43" s="63"/>
-      <c r="AD43" s="63"/>
-      <c r="AE43" s="63"/>
-      <c r="AF43" s="5"/>
-      <c r="AG43" s="30"/>
-      <c r="AH43" s="3" t="s">
+      <c r="AA50" s="63"/>
+      <c r="AB50" s="63"/>
+      <c r="AC50" s="63"/>
+      <c r="AD50" s="63"/>
+      <c r="AE50" s="63"/>
+      <c r="AF50" s="5"/>
+      <c r="AG50" s="30"/>
+      <c r="AH50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AI43" s="7"/>
-      <c r="AJ43" s="7"/>
-      <c r="AK43" s="7"/>
-      <c r="AL43" s="7"/>
-      <c r="AM43" s="7"/>
-    </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B44" s="6"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="68" t="s">
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+    </row>
+    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B51" s="6"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="68" t="s">
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
-      <c r="R44" s="68"/>
-      <c r="S44" s="68"/>
-      <c r="T44" s="68"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-      <c r="AA44" s="2"/>
-      <c r="AB44" s="2"/>
-      <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="2"/>
-      <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-      <c r="AL44" s="2"/>
-      <c r="AM44" s="2"/>
-    </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B45" s="3"/>
-      <c r="C45" s="69"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
-      <c r="AD45" s="1"/>
-      <c r="AE45" s="1"/>
-      <c r="AF45" s="1"/>
-      <c r="AG45" s="1"/>
-      <c r="AH45" s="1"/>
-      <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
-      <c r="AK45" s="1"/>
-      <c r="AL45" s="1"/>
-      <c r="AM45" s="1"/>
-    </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="60"/>
+      <c r="R51" s="60"/>
+      <c r="S51" s="60"/>
+      <c r="T51" s="60"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+    </row>
+    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+      <c r="AA52" s="1"/>
+      <c r="AB52" s="1"/>
+      <c r="AC52" s="1"/>
+      <c r="AD52" s="1"/>
+      <c r="AE52" s="1"/>
+      <c r="AF52" s="1"/>
+      <c r="AG52" s="1"/>
+      <c r="AH52" s="1"/>
+      <c r="AI52" s="1"/>
+      <c r="AJ52" s="1"/>
+      <c r="AK52" s="1"/>
+      <c r="AL52" s="1"/>
+      <c r="AM52" s="1"/>
+    </row>
+    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="B54" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="78">
-    <mergeCell ref="AG38:AI38"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="K40:N40"/>
-    <mergeCell ref="P40:V40"/>
-    <mergeCell ref="V11:V14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="S11:S14"/>
-    <mergeCell ref="T11:T14"/>
-    <mergeCell ref="U11:U14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="AJ9:AK10"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="L44:T44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="K41:N41"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="AB41:AG41"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AK41:AM41"/>
-    <mergeCell ref="X40:AA41"/>
-    <mergeCell ref="AK40:AM40"/>
-    <mergeCell ref="AC11:AC14"/>
-    <mergeCell ref="AD11:AD14"/>
-    <mergeCell ref="AE11:AE14"/>
-    <mergeCell ref="P41:V41"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="L43:T43"/>
-    <mergeCell ref="AA43:AE43"/>
-    <mergeCell ref="AB40:AG40"/>
-    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AL6:AM6"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="AF11:AF14"/>
+    <mergeCell ref="AG11:AG14"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="W11:W14"/>
+    <mergeCell ref="X11:X14"/>
+    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="C4:AI4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AL1:AM1"/>
+    <mergeCell ref="D1:AH2"/>
+    <mergeCell ref="AL2:AM2"/>
+    <mergeCell ref="N3:U3"/>
+    <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="C7:AI7"/>
     <mergeCell ref="AL7:AM7"/>
     <mergeCell ref="C5:AI5"/>
@@ -3207,34 +3491,50 @@
     <mergeCell ref="AA11:AA14"/>
     <mergeCell ref="AL5:AM5"/>
     <mergeCell ref="C6:AI6"/>
-    <mergeCell ref="C4:AI4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AL1:AM1"/>
-    <mergeCell ref="D1:AH2"/>
-    <mergeCell ref="AL2:AM2"/>
-    <mergeCell ref="N3:U3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AL6:AM6"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="AF11:AF14"/>
-    <mergeCell ref="AG11:AG14"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="W11:W14"/>
-    <mergeCell ref="X11:X14"/>
-    <mergeCell ref="AB11:AB14"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="L50:T50"/>
+    <mergeCell ref="AA50:AE50"/>
+    <mergeCell ref="AB47:AG47"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="AJ9:AK10"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="L51:T51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E48:J48"/>
+    <mergeCell ref="K48:N48"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="AB48:AG48"/>
+    <mergeCell ref="AH48:AJ48"/>
+    <mergeCell ref="AK48:AM48"/>
+    <mergeCell ref="X47:AA48"/>
+    <mergeCell ref="AK47:AM47"/>
+    <mergeCell ref="AC11:AC14"/>
+    <mergeCell ref="AD11:AD14"/>
+    <mergeCell ref="AE11:AE14"/>
+    <mergeCell ref="P48:V48"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="AG45:AI45"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E47:J47"/>
+    <mergeCell ref="K47:N47"/>
+    <mergeCell ref="P47:V47"/>
+    <mergeCell ref="V11:V14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="S11:S14"/>
+    <mergeCell ref="T11:T14"/>
+    <mergeCell ref="U11:U14"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="40" man="1"/>
+    <brk id="44" max="40" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>